--- a/xlsx/治理_intext.xlsx
+++ b/xlsx/治理_intext.xlsx
@@ -29,13 +29,13 @@
     <t>管辖</t>
   </si>
   <si>
-    <t>政策_政策_政治學_治理</t>
+    <t>政策_政策_政治学_治理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -47,25 +47,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>治權</t>
+    <t>治权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>領土</t>
+    <t>领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95</t>
   </si>
   <si>
-    <t>發展</t>
+    <t>发展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD</t>
   </si>
   <si>
-    <t>競爭</t>
+    <t>竞争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E4%BA%BA%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>法人團體</t>
+    <t>法人团体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%94%BF%E5%BA%9C%E7%BB%84%E7%BB%87</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99</t>
   </si>
   <si>
-    <t>目標</t>
+    <t>目标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E4%B8%9C</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%9B%A3%E7%AE%A1</t>
   </si>
   <si>
-    <t>資訊科技監管</t>
+    <t>资讯科技监管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
 </sst>
 </file>
